--- a/LeaveMangementAPI/LeaveMangementAPI/files/deparment.xlsx
+++ b/LeaveMangementAPI/LeaveMangementAPI/files/deparment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C16ABB-B2F7-45F2-AAD7-AD9D8BCABA49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F883B55C-3367-47B1-BEC1-38DA4948D136}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -367,7 +388,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -398,6 +419,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF(C:C,C2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
